--- a/FAT306-donnéesImprimantes.xlsx
+++ b/FAT306-donnéesImprimantes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FIN1\PROJETS\042-P_GestP2\FAT-306\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FIN1\PROJETS\042-P_GestP2\FAT-306\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Brand</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>numerisation resolution(ppp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epson </t>
+  </si>
+  <si>
+    <t>WorkForce WF-2850DWF</t>
   </si>
 </sst>
 </file>
@@ -407,15 +413,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -672,6 +679,26 @@
         <v>40.5</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>128.99</v>
+      </c>
+      <c r="F9">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
